--- a/medicine/Enfance/Pajemploi/Pajemploi.xlsx
+++ b/medicine/Enfance/Pajemploi/Pajemploi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre National Pajemploi (CPNE), plus connu sous le nom de Pajemploi, est un service du réseau des URSSAF . Son nom est un mot-valise composé de la prestation d'accueil du jeune enfant (Paje) et du terme "emploi".
-Basé à Vals-Près-le-Puy près du Puy-en-Velay et rattaché à l'URSSAF Auvergne, le centre Pajemploi compte environ 170 salariés[2],[1]. 
-Il a vocation à offrir ses services aux parents-employeurs, aux assistantes maternelles et aux salariés de la garde d'enfant[3]. Plus précisément, l'offre de service de Pajemploi est destinée à simplifier les formalités administratives pour les parents employeurs qui font garder leur(s) enfant(s) par une assistante maternelle agréée ou une garde d’enfants à domicile[4]. Le centre national Pajemploi est, avec le Centre national du CESU, l'un des deux centres nationaux rattachés aux URSSAF .
-Le service Pajemploi concerne, en 2021, environ 400 000 assistant(e)s maternel(le)s et près de 1 100 000 parents-employeurs selon la FEPEM[5][source insuffisante]. 
+Basé à Vals-Près-le-Puy près du Puy-en-Velay et rattaché à l'URSSAF Auvergne, le centre Pajemploi compte environ 170 salariés,. 
+Il a vocation à offrir ses services aux parents-employeurs, aux assistantes maternelles et aux salariés de la garde d'enfant. Plus précisément, l'offre de service de Pajemploi est destinée à simplifier les formalités administratives pour les parents employeurs qui font garder leur(s) enfant(s) par une assistante maternelle agréée ou une garde d’enfants à domicile. Le centre national Pajemploi est, avec le Centre national du CESU, l'un des deux centres nationaux rattachés aux URSSAF .
+Le service Pajemploi concerne, en 2021, environ 400 000 assistant(e)s maternel(le)s et près de 1 100 000 parents-employeurs selon la FEPEM[source insuffisante]. 
 Dans le cadre de ses missions, le Centre Pajemploi a tissé des liens avec les relais d'assistant(e)s maternel(le)s et avec la FEPEM (association représentant les parents-employeurs). 
-Afin de simplifier davantage les démarches des usagers, le centre a mis en place le dispositif Pajemploi+ en 2019[6]. Ce service propose de verser les rémunérations des salarié(e)s à la place des parents-employeurs. Il permet aux parents-employeurs de ne pas avoir à avancer les frais qui seront finalement couverts par le CMG. À l'inverse, il offre aux salarié(e)s une protection d'un mois contre les impayés du parent-employeur[7][source insuffisante],[8].
+Afin de simplifier davantage les démarches des usagers, le centre a mis en place le dispositif Pajemploi+ en 2019. Ce service propose de verser les rémunérations des salarié(e)s à la place des parents-employeurs. Il permet aux parents-employeurs de ne pas avoir à avancer les frais qui seront finalement couverts par le CMG. À l'inverse, il offre aux salarié(e)s une protection d'un mois contre les impayés du parent-employeur[source insuffisante],.
 </t>
         </is>
       </c>
@@ -517,9 +529,11 @@
           <t>Le Centre Pajemploi et la crise sanitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De plus, le Centre Pajemploi est l'organisme qui a versé les aides exceptionnelles dans le cadre de l'accompagnement économique lié à la crise de la Covid19[9]. Ainsi, le Centre Pajemploi a versé les aides relatives au chômage partiel pour les milliers d'assistant(e)s maternel(le)s concerné(e)s[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De plus, le Centre Pajemploi est l'organisme qui a versé les aides exceptionnelles dans le cadre de l'accompagnement économique lié à la crise de la Covid19. Ainsi, le Centre Pajemploi a versé les aides relatives au chômage partiel pour les milliers d'assistant(e)s maternel(le)s concerné(e)s.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
           <t>Le Centre Pajemploi et l'innovation administrative</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme l'ensemble des organismes de la sphère publique, le centre Pajemploi a mené, durant ces dernières années, une intense politique[non neutre] de dématérialisation des démarches administratives[11][source insuffisante].
-Une étude menée par la CNAF a montré que le site internet de Pajemploi est le 2e site le plus cité par les parents en matière site d'information sur les modes de garde[12]. 
-Le Centre national Pajemploi est, avec le Centre national du CESU, l'institution pilote de l'expérimentation de la contemporanéité des crédits d'impôt lancée par le gouvernement de Jean Castex en 2021[13]. Cette expérimentation fait suite au prélèvement à la source de l'impôt sur le revenu. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme l'ensemble des organismes de la sphère publique, le centre Pajemploi a mené, durant ces dernières années, une intense politique[non neutre] de dématérialisation des démarches administratives[source insuffisante].
+Une étude menée par la CNAF a montré que le site internet de Pajemploi est le 2e site le plus cité par les parents en matière site d'information sur les modes de garde. 
+Le Centre national Pajemploi est, avec le Centre national du CESU, l'institution pilote de l'expérimentation de la contemporanéité des crédits d'impôt lancée par le gouvernement de Jean Castex en 2021. Cette expérimentation fait suite au prélèvement à la source de l'impôt sur le revenu. 
 </t>
         </is>
       </c>
